--- a/Reports/Video Game Sales Data_Module 6 - Rana Amache.xlsx
+++ b/Reports/Video Game Sales Data_Module 6 - Rana Amache.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joegv\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranaa\Documents\FromSmallComputer\Desktop\Data Analytics Courses - Algonquin\Data Analysis for analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64AD0A5-430F-4140-A9B2-D47F2E92340B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DA4F09-6E16-42FC-97D0-6BD002CCA986}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
@@ -18,21 +18,7 @@
     <sheet name="Sports Data" sheetId="2" r:id="rId3"/>
     <sheet name="Shooter Data" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sports Data'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sports Data'!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sports Data'!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sports Data'!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sports Data'!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sports Data'!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sports Data'!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sports Data'!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sports Data'!$B$1</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sports Data'!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sports Data'!$A$1</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sports Data'!$A$2:$A$14</definedName>
-  </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -63,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,13 +65,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,9 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,7 +156,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -154,14 +169,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2200" b="1"/>
               <a:t>Average Critic</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2200" b="1" baseline="0"/>
               <a:t> Scores</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2200" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -178,7 +193,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -207,7 +222,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -227,7 +242,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -251,11 +266,11 @@
                   <c:y val="-1.5200131233595801E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:showLegendKey val="0"/>
+              <c:showLegendKey val="1"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -272,11 +287,11 @@
                   <c:y val="-7.8539661708953053E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:showLegendKey val="0"/>
+              <c:showLegendKey val="1"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -285,6 +300,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -299,7 +315,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -314,11 +330,11 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
+            <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -408,7 +424,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -489,7 +505,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -502,14 +518,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2200"/>
               <a:t>Count</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2200" baseline="0"/>
               <a:t> of Games by Money Made</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -526,7 +542,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -544,7 +560,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1063723693620892E-2"/>
+          <c:y val="8.2454974694375252E-2"/>
+          <c:w val="0.90589070638536406"/>
+          <c:h val="0.77853843766993036"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1055,7 +1081,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1700" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1068,14 +1094,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1700" b="1"/>
                   <a:t>Money</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1700" b="1" baseline="0"/>
                   <a:t> Made (millions)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1700" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1092,7 +1118,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1700" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1158,20 +1184,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1179,7 +1191,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1700" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1192,14 +1204,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1700" b="1"/>
                   <a:t>Count</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1700" b="1" baseline="0"/>
                   <a:t> of Games</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1700" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1216,7 +1228,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1700" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1284,6 +1296,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58803734674370656"/>
+          <c:y val="0.93010983069176445"/>
+          <c:w val="0.3042796629102264"/>
+          <c:h val="5.8789373918974146E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1297,7 +1319,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1378,11 +1400,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1410,11 +1432,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1449,10 +1471,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1466,18 +1495,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1487,7 +1513,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1502,9 +1528,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1625,7 +1651,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1633,8 +1659,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
+        <c:gapWidth val="65"/>
         <c:axId val="2102286976"/>
         <c:axId val="2037003232"/>
       </c:barChart>
@@ -1645,20 +1670,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1666,11 +1677,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1679,8 +1690,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>$ Made (millions)</a:t>
+                  <a:rPr lang="en-US" sz="1500"/>
+                  <a:t>Money Made ($ millions)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1698,11 +1709,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1720,11 +1731,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1736,11 +1747,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1767,6 +1778,32 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1774,11 +1811,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1787,7 +1824,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1500"/>
                   <a:t>Count of Games</a:t>
                 </a:r>
               </a:p>
@@ -1806,11 +1843,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1843,14 +1880,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1896,11 +1949,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1928,11 +1981,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1946,7 +1999,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0024118606795775E-2"/>
+          <c:y val="0.2478907890075141"/>
+          <c:w val="0.91354945496677775"/>
+          <c:h val="0.49569069223894963"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1967,10 +2030,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1984,18 +2054,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2005,7 +2072,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2020,9 +2087,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2161,7 +2228,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2169,8 +2236,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
+        <c:gapWidth val="65"/>
         <c:axId val="80455520"/>
         <c:axId val="2047160384"/>
       </c:barChart>
@@ -2181,20 +2247,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2202,11 +2254,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2215,8 +2267,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>$ Made (millions)</a:t>
+                  <a:rPr lang="en-US" sz="1500"/>
+                  <a:t>Money  Made ($ millions)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2234,11 +2286,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2256,11 +2308,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2272,11 +2324,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2303,6 +2355,32 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2310,11 +2388,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2323,7 +2401,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1500"/>
                   <a:t>Count of Games</a:t>
                 </a:r>
               </a:p>
@@ -2342,11 +2420,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2386,14 +2464,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2419,13 +2513,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2499,13 +2590,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3614,104 +3702,107 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -3727,8 +3818,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3742,8 +3843,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -3756,18 +3867,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -3777,17 +3888,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3811,17 +3918,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3838,15 +3945,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3862,11 +3969,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3880,7 +3988,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3906,12 +4014,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3925,12 +4045,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3944,45 +4076,54 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3990,7 +4131,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4003,17 +4144,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4031,9 +4172,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4045,12 +4186,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4066,7 +4207,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4075,12 +4215,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4095,7 +4235,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4108,20 +4248,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4138,104 +4272,107 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -4251,8 +4388,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -4266,8 +4413,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -4280,18 +4437,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -4301,17 +4458,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4335,17 +4488,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4362,15 +4515,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4386,11 +4539,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4404,7 +4558,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4430,12 +4584,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4449,12 +4615,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4468,45 +4646,54 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4514,7 +4701,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4527,17 +4714,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4555,9 +4742,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4569,12 +4756,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4590,7 +4777,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4599,12 +4785,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4619,7 +4805,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4632,20 +4818,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4666,15 +4846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4703,16 +4883,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>6349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4742,15 +4922,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4780,15 +4960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5140,22 +5320,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9688622-466D-4B29-AAFA-E010649A4ECA}">
-  <dimension ref="H1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H1" s="1" t="s">
+    <row r="1" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
